--- a/ExcelFiles/Products.xlsx
+++ b/ExcelFiles/Products.xlsx
@@ -28,7 +28,16 @@
     <x:t>Sari Kula</x:t>
   </x:si>
   <x:si>
+    <x:t>duyu</x:t>
+  </x:si>
+  <x:si>
     <x:t>Qara kula</x:t>
+  </x:si>
+  <x:si>
+    <x:t>un</x:t>
+  </x:si>
+  <x:si>
+    <x:t>27277</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -379,7 +388,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C4"/>
+  <x:dimension ref="A1:C48"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -409,23 +418,507 @@
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="0">
-        <x:v>2</x:v>
+        <x:v>3</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
       <x:c r="C3" s="0">
-        <x:v>100</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="0">
-        <x:v>3</x:v>
+        <x:v>4</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>4</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="C4" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="0">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C5" s="0">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="0">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C6" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="0">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C7" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="0">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C8" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:3">
+      <x:c r="A9" s="0">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B9" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C9" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:3">
+      <x:c r="A10" s="0">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B10" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C10" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:3">
+      <x:c r="A11" s="0">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B11" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C11" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:3">
+      <x:c r="A12" s="0">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C12" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:3">
+      <x:c r="A13" s="0">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B13" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C13" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:3">
+      <x:c r="A14" s="0">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B14" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C14" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:3">
+      <x:c r="A15" s="0">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C15" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:3">
+      <x:c r="A16" s="0">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C16" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:3">
+      <x:c r="A17" s="0">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C17" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="0">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C18" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:3">
+      <x:c r="A19" s="0">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C19" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:3">
+      <x:c r="A20" s="0">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C20" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:3">
+      <x:c r="A21" s="0">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C21" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:3">
+      <x:c r="A22" s="0">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B22" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C22" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:3">
+      <x:c r="A23" s="0">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="B23" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C23" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:3">
+      <x:c r="A24" s="0">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B24" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C24" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:3">
+      <x:c r="A25" s="0">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C25" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:3">
+      <x:c r="A26" s="0">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B26" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C26" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:3">
+      <x:c r="A27" s="0">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C27" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:3">
+      <x:c r="A28" s="0">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C28" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:3">
+      <x:c r="A29" s="0">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B29" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C29" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:3">
+      <x:c r="A30" s="0">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C30" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:3">
+      <x:c r="A31" s="0">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C31" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:3">
+      <x:c r="A32" s="0">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C32" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:3">
+      <x:c r="A33" s="0">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B33" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C33" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:3">
+      <x:c r="A34" s="0">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B34" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C34" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:3">
+      <x:c r="A35" s="0">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C35" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:3">
+      <x:c r="A36" s="0">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B36" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C36" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:3">
+      <x:c r="A37" s="0">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B37" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C37" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:3">
+      <x:c r="A38" s="0">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C38" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:3">
+      <x:c r="A39" s="0">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C39" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:3">
+      <x:c r="A40" s="0">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C40" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:3">
+      <x:c r="A41" s="0">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B41" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C41" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:3">
+      <x:c r="A42" s="0">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C42" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:3">
+      <x:c r="A43" s="0">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B43" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C43" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:3">
+      <x:c r="A44" s="0">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C44" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:3">
+      <x:c r="A45" s="0">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C45" s="0">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:3">
+      <x:c r="A46" s="0">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C46" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:3">
+      <x:c r="A47" s="0">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B47" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C47" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:3">
+      <x:c r="A48" s="0">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B48" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C48" s="0">
         <x:v>100</x:v>
       </x:c>
     </x:row>

--- a/ExcelFiles/Products.xlsx
+++ b/ExcelFiles/Products.xlsx
@@ -38,6 +38,9 @@
   </x:si>
   <x:si>
     <x:t>27277</x:t>
+  </x:si>
+  <x:si>
+    <x:t>qaymaq</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -388,7 +391,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C48"/>
+  <x:dimension ref="A1:C59"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -922,6 +925,127 @@
         <x:v>100</x:v>
       </x:c>
     </x:row>
+    <x:row r="49" spans="1:3">
+      <x:c r="A49" s="0">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="B49" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C49" s="0">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="50" spans="1:3">
+      <x:c r="A50" s="0">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B50" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C50" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="51" spans="1:3">
+      <x:c r="A51" s="0">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="B51" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C51" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="52" spans="1:3">
+      <x:c r="A52" s="0">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="B52" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C52" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="53" spans="1:3">
+      <x:c r="A53" s="0">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B53" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C53" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="54" spans="1:3">
+      <x:c r="A54" s="0">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B54" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C54" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="55" spans="1:3">
+      <x:c r="A55" s="0">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="B55" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C55" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="56" spans="1:3">
+      <x:c r="A56" s="0">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B56" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C56" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="57" spans="1:3">
+      <x:c r="A57" s="0">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B57" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C57" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="58" spans="1:3">
+      <x:c r="A58" s="0">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="B58" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C58" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="59" spans="1:3">
+      <x:c r="A59" s="0">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B59" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C59" s="0">
+        <x:v>100</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
